--- a/autodock/res.xlsx
+++ b/autodock/res.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="mirjr"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" xWindow="240" yWindow="60" windowWidth="22260" windowHeight="12645" tabRatio="500"/>
+    <workbookView activeTab="2" xWindow="240" yWindow="60" windowWidth="22261" windowHeight="12651" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="A-amylase" sheetId="1" r:id="rId4"/>
@@ -23,10 +23,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1679336014" val="1062" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1679336014" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1679336014" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1679336014"/>
+      <pm:revision xmlns:pm="smNativeData" day="1679848106" val="1062" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1679848106" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1679848106" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1679848106"/>
     </ext>
   </extLst>
 </workbook>
@@ -375,7 +375,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1679336014" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1679848106" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -390,7 +390,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1679336014" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1679848106" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -406,7 +406,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1679336014" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1679848106" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -421,7 +421,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1679336014" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1679848106" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -437,7 +437,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1679336014" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1679848106" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -452,7 +452,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1679336014" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1679848106" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -477,7 +477,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1679336014" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1679848106" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -488,7 +488,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1679336014" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1679848106" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -499,7 +499,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1679336014" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1679848106" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -521,7 +521,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1679336014"/>
+          <pm:border xmlns:pm="smNativeData" id="1679848106"/>
         </ext>
       </extLst>
     </border>
@@ -540,7 +540,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1679336014">
+          <pm:border xmlns:pm="smNativeData" id="1679848106">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -564,7 +564,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1679336014"/>
+          <pm:border xmlns:pm="smNativeData" id="1679848106"/>
         </ext>
       </extLst>
     </border>
@@ -583,7 +583,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1679336014"/>
+          <pm:border xmlns:pm="smNativeData" id="1679848106"/>
         </ext>
       </extLst>
     </border>
@@ -602,7 +602,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1679336014"/>
+          <pm:border xmlns:pm="smNativeData" id="1679848106"/>
         </ext>
       </extLst>
     </border>
@@ -612,16 +612,16 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -634,10 +634,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1679336014" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1679848106" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1679336014" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1679848106" count="1">
         <pm:color name="Color 24" rgb="FFC000"/>
       </pm:colors>
     </ext>
@@ -1200,7 +1200,7 @@
         <v>-7.79000000000000004</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>-7.42999999999999972</v>
+        <v>-7.42999999999999883</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>-0.359999999999999964</v>
@@ -2314,7 +2314,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1679336014" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1679848106" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2323,14 +2323,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1679336014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1679336014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1679336014" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1679848106" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2343,8 +2343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="B1:J47"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView view="normal" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -2841,7 +2841,7 @@
         <v>-6.91000000000000014</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0.660000000000000053</v>
+        <v>0.660000000000000142</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>-10.1899999999999995</v>
@@ -2850,7 +2850,7 @@
         <v>-10.0099999999999998</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>-0.179999999999999982</v>
+        <v>-0.179999999999999964</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>-3.85</v>
@@ -2992,7 +2992,7 @@
         <v>-7.48000000000000043</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>-7.21999999999999975</v>
+        <v>-7.21999999999999886</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>-0.260000000000000009</v>
@@ -3134,10 +3134,10 @@
         <v>584.200000000000045</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>-7.38999999999999968</v>
+        <v>-7.38999999999999879</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>-7.30999999999999961</v>
+        <v>-7.30999999999999872</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>-0.09</v>
@@ -3223,7 +3223,7 @@
         <v>-4.23000000000000043</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>788.899999999999977</v>
+        <v>788.899999999999864</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>-5.42999999999999972</v>
@@ -3403,7 +3403,7 @@
         <v>-7.78000000000000025</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>-7.51999999999999957</v>
+        <v>-7.51999999999999869</v>
       </c>
       <c r="G41" s="1" t="n">
         <v>-0.260000000000000009</v>
@@ -3458,10 +3458,10 @@
         <v>29.3900000000000006</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>-7.96999999999999975</v>
+        <v>-7.96999999999999886</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>-7.67999999999999972</v>
+        <v>-7.67999999999999883</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>-0.29</v>
@@ -3548,7 +3548,7 @@
         <v>-7.40000000000000036</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>-7.30999999999999961</v>
+        <v>-7.30999999999999872</v>
       </c>
       <c r="G46" s="1" t="n">
         <v>-0.09</v>
@@ -3571,7 +3571,7 @@
         <v>-6.51999999999999957</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>16.5599999999999987</v>
+        <v>16.5599999999999952</v>
       </c>
       <c r="E47" s="1" t="n">
         <v>-10.0999999999999996</v>
@@ -3596,7 +3596,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1679336014" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1679848106" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3605,14 +3605,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1679336014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1679336014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1679336014" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1679848106" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3623,10 +3623,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="B1:J47"/>
+  <dimension ref="B1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -4089,28 +4089,28 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>-3.39000000000000012</v>
+        <v>-3.98000000000000007</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>3.27000000000000002</v>
+        <v>1.19999999999999996</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>-4.58000000000000007</v>
+        <v>-5.17999999999999972</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>-4.41999999999999993</v>
+        <v>-5.15000000000000036</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>-0.160000000000000009</v>
+        <v>-0.03</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>-0.210000000000000009</v>
+        <v>-0.19</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>1.18999999999999995</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>-0.210000000000000009</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -4118,28 +4118,28 @@
         <v>12</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>-4.29999999999999982</v>
+        <v>-4.95000000000000018</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>707.07000000000005</v>
+        <v>235.400000000000006</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>-7.58000000000000007</v>
+        <v>-8.23000000000000043</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>-7.00999999999999979</v>
+        <v>-7.74000000000000021</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>-0.569999999999999929</v>
+        <v>-0.490000000000000036</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>-3.75999999999999979</v>
+        <v>-4.37999999999999989</v>
       </c>
       <c r="I20" s="1" t="n">
         <v>3.2799999999999998</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>-3.75999999999999979</v>
+        <v>-4.37999999999999989</v>
       </c>
     </row>
     <row r="21" spans="2:10">
@@ -4147,28 +4147,28 @@
         <v>13</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>-5.23000000000000043</v>
+        <v>-5.40000000000000036</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>146.490000000000009</v>
+        <v>110.439999999999998</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>-7.01999999999999957</v>
+        <v>-7.19000000000000039</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>-6.44000000000000039</v>
+        <v>-6.23000000000000043</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>-0.579999999999999982</v>
+        <v>-0.959999999999999964</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>-2.35000000000000009</v>
+        <v>-2.35999999999999988</v>
       </c>
       <c r="I21" s="1" t="n">
         <v>1.79000000000000004</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>-2.35000000000000009</v>
+        <v>-2.35999999999999988</v>
       </c>
     </row>
     <row r="22" spans="2:10">
@@ -4176,28 +4176,28 @@
         <v>14</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>-4.79000000000000004</v>
+        <v>-6.26999999999999957</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>309.189999999999998</v>
+        <v>25.1499999999999986</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>-8.07000000000000028</v>
+        <v>-9.5600000000000005</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>-7.69000000000000039</v>
+        <v>-8.72000000000000064</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>-0.379999999999999982</v>
+        <v>-0.829999999999999893</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>-3.24000000000000021</v>
+        <v>-3.39999999999999991</v>
       </c>
       <c r="I22" s="1" t="n">
         <v>3.2799999999999998</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>-3.24000000000000021</v>
+        <v>-3.39999999999999991</v>
       </c>
     </row>
     <row r="23" spans="2:10">
@@ -4205,28 +4205,28 @@
         <v>15</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>-4.29999999999999982</v>
+        <v>-4.23000000000000043</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>706.769999999999982</v>
+        <v>795.610000000000014</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>-5.79000000000000004</v>
+        <v>-5.71999999999999975</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>-5.03000000000000025</v>
+        <v>-5.23000000000000043</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>-0.759999999999999876</v>
+        <v>-0.490000000000000036</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>-0.969999999999999929</v>
+        <v>-0.959999999999999964</v>
       </c>
       <c r="I23" s="1" t="n">
         <v>1.49000000000000004</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>-0.969999999999999929</v>
+        <v>-0.959999999999999964</v>
       </c>
     </row>
     <row r="24" spans="2:10">
@@ -4234,28 +4234,28 @@
         <v>16</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>-5.84999999999999964</v>
+        <v>-5.16999999999999993</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>51.7700000000000031</v>
+        <v>161.759999999999991</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>-9.72000000000000064</v>
+        <v>-9.05000000000000071</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>-8.97000000000000064</v>
+        <v>-8.64000000000000057</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>-0.759999999999999876</v>
+        <v>-0.409999999999999964</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>-3.85999999999999979</v>
+        <v>-5.87000000000000011</v>
       </c>
       <c r="I24" s="1" t="n">
         <v>3.87999999999999989</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>-3.85999999999999979</v>
+        <v>-5.87000000000000011</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -4263,28 +4263,28 @@
         <v>17</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>-4.90000000000000036</v>
+        <v>-5.58999999999999986</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>256.670000000000016</v>
+        <v>80.4300000000000068</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>-6.38999999999999968</v>
+        <v>-7.08000000000000007</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>-5.88999999999999968</v>
+        <v>-7</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>-0.5</v>
+        <v>-0.08</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>-2</v>
+        <v>-2.00999999999999979</v>
       </c>
       <c r="I25" s="1" t="n">
         <v>1.49000000000000004</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>-2</v>
+        <v>-2.00999999999999979</v>
       </c>
     </row>
     <row r="26" spans="2:10">
@@ -4292,28 +4292,28 @@
         <v>18</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>-8.52999999999999758</v>
+        <v>-9.13000000000000078</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>558.940000000000055</v>
+        <v>203.800000000000011</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>-11.8100000000000005</v>
+        <v>-12.4100000000000001</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>-11.8100000000000005</v>
+        <v>-12.4100000000000001</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>-4.15000000000000036</v>
+        <v>-4.71999999999999975</v>
       </c>
       <c r="I26" s="1" t="n">
         <v>3.2799999999999998</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>-4.15000000000000036</v>
+        <v>-4.71999999999999975</v>
       </c>
     </row>
     <row r="27" spans="2:10">
@@ -4321,28 +4321,28 @@
         <v>20</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>-5.41999999999999993</v>
+        <v>-5.34999999999999964</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>106.810000000000002</v>
+        <v>119.680000000000007</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>-7.20999999999999996</v>
+        <v>-7.13999999999999968</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>-6.95999999999999996</v>
+        <v>-6.16999999999999993</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>-0.25</v>
+        <v>-0.969999999999999929</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>-2.43999999999999995</v>
+        <v>-2.16000000000000014</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>1.79000000000000004</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>-2.43999999999999995</v>
+        <v>-2.16000000000000014</v>
       </c>
     </row>
     <row r="28" spans="2:10">
@@ -4350,28 +4350,28 @@
         <v>21</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>-4.41999999999999993</v>
+        <v>-5.40000000000000036</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>572.289999999999964</v>
+        <v>110.560000000000002</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>-8.30000000000000071</v>
+        <v>-9.27999999999999936</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>-8</v>
+        <v>-8.60999999999999943</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>-0.3</v>
+        <v>-0.670000000000000018</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>-5.42999999999999972</v>
+        <v>-4.45999999999999996</v>
       </c>
       <c r="I28" s="1" t="n">
         <v>3.87999999999999989</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>-5.42999999999999972</v>
+        <v>-4.45999999999999996</v>
       </c>
     </row>
     <row r="29" spans="2:10">
@@ -4379,28 +4379,28 @@
         <v>22</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>-4.57000000000000028</v>
+        <v>-5.59999999999999964</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>448.810000000000002</v>
+        <v>77.9899999999999949</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>-9.33999999999999986</v>
+        <v>-10.3800000000000008</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>-8.65000000000000036</v>
+        <v>-8.8100000000000005</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>-0.689999999999999947</v>
+        <v>-1.57000000000000011</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>-8.05000000000000071</v>
+        <v>-6.75</v>
       </c>
       <c r="I29" s="1" t="n">
         <v>4.76999999999999957</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>-8.05000000000000071</v>
+        <v>-6.75</v>
       </c>
     </row>
     <row r="30" spans="2:10">
@@ -4408,28 +4408,28 @@
         <v>23</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>-4.94000000000000039</v>
+        <v>-4.76999999999999957</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>240.360000000000014</v>
+        <v>317.75</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>-7.91999999999999993</v>
+        <v>-7.75</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>-7.45000000000000018</v>
+        <v>-7.20000000000000018</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>-0.469999999999999929</v>
+        <v>-0.560000000000000053</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>-2.18000000000000016</v>
+        <v>-2.79999999999999982</v>
       </c>
       <c r="I30" s="1" t="n">
         <v>2.98000000000000007</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>-2.18000000000000016</v>
+        <v>-2.79999999999999982</v>
       </c>
     </row>
     <row r="31" spans="2:10">
@@ -4500,28 +4500,28 @@
         <v>10</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>-3.39000000000000012</v>
+        <v>-3.79999999999999982</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>3.27000000000000002</v>
+        <v>1.63999999999999986</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>-4.58000000000000007</v>
+        <v>-4.99000000000000021</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>-4.41999999999999993</v>
+        <v>-4.91999999999999993</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>-0.160000000000000009</v>
+        <v>-0.08</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>-0.210000000000000009</v>
+        <v>-0.19</v>
       </c>
       <c r="I35" s="1" t="n">
         <v>1.18999999999999995</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>-0.210000000000000009</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="36" spans="2:10">
@@ -4529,28 +4529,28 @@
         <v>12</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>-4.29999999999999982</v>
+        <v>-6.19000000000000039</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>707.07000000000005</v>
+        <v>29.0300000000000011</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>-7.58000000000000007</v>
+        <v>-9.47000000000000064</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>-7.00999999999999979</v>
+        <v>-9.03999999999999915</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>-0.569999999999999929</v>
+        <v>-0.429999999999999982</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>-3.75999999999999979</v>
+        <v>-3.18000000000000016</v>
       </c>
       <c r="I36" s="1" t="n">
         <v>3.2799999999999998</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>-3.75999999999999979</v>
+        <v>-3.18000000000000016</v>
       </c>
     </row>
     <row r="37" spans="2:10">
@@ -4558,28 +4558,28 @@
         <v>13</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>-5.23000000000000043</v>
+        <v>-5.41999999999999993</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>146.490000000000009</v>
+        <v>107.010000000000005</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>-7.01999999999999957</v>
+        <v>-7.20999999999999996</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>-6.44000000000000039</v>
+        <v>-6.95000000000000018</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>-0.579999999999999982</v>
+        <v>-0.25</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>-2.35000000000000009</v>
+        <v>-2.85</v>
       </c>
       <c r="I37" s="1" t="n">
         <v>1.79000000000000004</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>-2.35000000000000009</v>
+        <v>-2.85</v>
       </c>
     </row>
     <row r="38" spans="2:10">
@@ -4587,28 +4587,28 @@
         <v>14</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>-4.79000000000000004</v>
+        <v>-5.46999999999999975</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>309.189999999999998</v>
+        <v>97.75</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>-8.07000000000000028</v>
+        <v>-8.75</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>-7.69000000000000039</v>
+        <v>-7.96999999999999975</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>-0.379999999999999982</v>
+        <v>-0.780000000000000071</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>-3.24000000000000021</v>
+        <v>-4.00999999999999979</v>
       </c>
       <c r="I38" s="1" t="n">
         <v>3.2799999999999998</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>-3.24000000000000021</v>
+        <v>-4.00999999999999979</v>
       </c>
     </row>
     <row r="39" spans="2:10">
@@ -4616,28 +4616,28 @@
         <v>15</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>-4.29999999999999982</v>
+        <v>-4.34999999999999964</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>706.769999999999982</v>
+        <v>644.75</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>-5.79000000000000004</v>
+        <v>-5.83999999999999986</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>-5.03000000000000025</v>
+        <v>-5.37999999999999989</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>-0.759999999999999876</v>
+        <v>-0.460000000000000053</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>-0.969999999999999929</v>
+        <v>-0.939999999999999858</v>
       </c>
       <c r="I39" s="1" t="n">
         <v>1.49000000000000004</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>-0.969999999999999929</v>
+        <v>-0.939999999999999858</v>
       </c>
     </row>
     <row r="40" spans="2:10">
@@ -4645,28 +4645,28 @@
         <v>16</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>-5.84999999999999964</v>
+        <v>-4.80999999999999961</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>51.7700000000000031</v>
+        <v>297.389999999999986</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>-9.72000000000000064</v>
+        <v>-8.6899999999999995</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>-8.97000000000000064</v>
+        <v>-8.35999999999999943</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>-0.759999999999999876</v>
+        <v>-0.330000000000000027</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>-3.85999999999999979</v>
+        <v>-3.62000000000000011</v>
       </c>
       <c r="I40" s="1" t="n">
         <v>3.87999999999999989</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>-3.85999999999999979</v>
+        <v>-3.62000000000000011</v>
       </c>
     </row>
     <row r="41" spans="2:10">
@@ -4674,28 +4674,28 @@
         <v>17</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>-4.90000000000000036</v>
+        <v>-5.08999999999999986</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>256.670000000000016</v>
+        <v>184.909999999999997</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>-6.38999999999999968</v>
+        <v>-6.58000000000000007</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>-5.88999999999999968</v>
+        <v>-5.99000000000000021</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>-2</v>
+        <v>-1.1100000000000001</v>
       </c>
       <c r="I41" s="1" t="n">
         <v>1.49000000000000004</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>-2</v>
+        <v>-1.1100000000000001</v>
       </c>
     </row>
     <row r="42" spans="2:10">
@@ -4703,28 +4703,28 @@
         <v>18</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>-8.52999999999999758</v>
+        <v>-11.0800000000000001</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>558.940000000000055</v>
+        <v>7.51999999999999957</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>-11.8100000000000005</v>
+        <v>-14.3599999999999994</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>-11.8100000000000005</v>
+        <v>-14.3599999999999994</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>-4.15000000000000036</v>
+        <v>-5.61000000000000032</v>
       </c>
       <c r="I42" s="1" t="n">
         <v>3.2799999999999998</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>-4.15000000000000036</v>
+        <v>-5.61000000000000032</v>
       </c>
     </row>
     <row r="43" spans="2:10">
@@ -4732,28 +4732,28 @@
         <v>20</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>-5.41999999999999993</v>
+        <v>-5.36000000000000032</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>106.810000000000002</v>
+        <v>117.290000000000006</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>-7.20999999999999996</v>
+        <v>-7.15000000000000036</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>-6.95999999999999996</v>
+        <v>-6.91999999999999993</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>-0.25</v>
+        <v>-0.230000000000000027</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>-2.43999999999999995</v>
+        <v>-2.4700000000000002</v>
       </c>
       <c r="I43" s="1" t="n">
         <v>1.79000000000000004</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>-2.43999999999999995</v>
+        <v>-2.4700000000000002</v>
       </c>
     </row>
     <row r="44" spans="2:10">
@@ -4761,28 +4761,28 @@
         <v>21</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>-4.41999999999999993</v>
+        <v>-4.74000000000000021</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>572.289999999999964</v>
+        <v>335.20999999999998</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>-8.30000000000000071</v>
+        <v>-8.61999999999999922</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>-8</v>
+        <v>-8.13000000000000078</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>-0.3</v>
+        <v>-0.490000000000000036</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>-5.42999999999999972</v>
+        <v>-4.5</v>
       </c>
       <c r="I44" s="1" t="n">
         <v>3.87999999999999989</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>-5.42999999999999972</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="45" spans="2:10">
@@ -4790,28 +4790,28 @@
         <v>22</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>-4.57000000000000028</v>
+        <v>-3.70000000000000018</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>448.810000000000002</v>
+        <v>1.92999999999999989</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>-9.33999999999999986</v>
+        <v>-8.48000000000000043</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>-8.65000000000000036</v>
+        <v>-7.84999999999999964</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>-0.689999999999999947</v>
+        <v>-0.629999999999999982</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>-8.05000000000000071</v>
+        <v>-8.58000000000000007</v>
       </c>
       <c r="I45" s="1" t="n">
         <v>4.76999999999999957</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>-8.05000000000000071</v>
+        <v>-8.58000000000000007</v>
       </c>
     </row>
     <row r="46" spans="2:10">
@@ -4819,28 +4819,28 @@
         <v>23</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>-4.94000000000000039</v>
+        <v>-3.68999999999999995</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>240.360000000000014</v>
+        <v>1.98000000000000007</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>-7.91999999999999993</v>
+        <v>-6.66999999999999993</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>-7.45000000000000018</v>
+        <v>-5.83999999999999986</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>-0.469999999999999929</v>
+        <v>-0.829999999999999893</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>-2.18000000000000016</v>
+        <v>-2.45000000000000018</v>
       </c>
       <c r="I46" s="1" t="n">
         <v>2.98000000000000007</v>
       </c>
       <c r="J46" s="1" t="n">
-        <v>-2.18000000000000016</v>
+        <v>-2.45000000000000018</v>
       </c>
     </row>
     <row r="47" spans="2:10">
@@ -4848,35 +4848,35 @@
         <v>24</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>-4.82000000000000028</v>
+        <v>-5.09999999999999964</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>294.819999999999993</v>
+        <v>183.300000000000011</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>-8.40000000000000036</v>
+        <v>-8.67999999999999972</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>-7.83999999999999986</v>
+        <v>-8.1899999999999995</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>-0.560000000000000053</v>
+        <v>-0.490000000000000036</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>-1.18999999999999995</v>
+        <v>-2.35999999999999988</v>
       </c>
       <c r="I47" s="1" t="n">
         <v>3.58000000000000007</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>-1.18999999999999995</v>
+        <v>-2.35999999999999988</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1679336014" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1679848106" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4885,14 +4885,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1679336014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1679336014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1679336014" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1679848106" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -5161,10 +5161,10 @@
         <v>10.3900000000000006</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>-14.1699999999999999</v>
+        <v>-14.1700000000000017</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>-14.1699999999999999</v>
+        <v>-14.1700000000000017</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>0</v>
@@ -5328,7 +5328,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1679336014" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1679848106" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5337,14 +5337,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1679336014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1679336014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1679336014" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1679848106" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -5772,7 +5772,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1679336014" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1679848106" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5781,14 +5781,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1679336014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1679336014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1679336014" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1679848106" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6091,7 +6091,7 @@
         <v>-8.08000000000000007</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>-7.71999999999999975</v>
+        <v>-7.71999999999999886</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>-0.359999999999999964</v>
@@ -6226,7 +6226,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1679336014" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1679848106" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6235,14 +6235,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1679336014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1679336014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1679336014" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1679848106" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6679,7 +6679,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1679336014" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1679848106" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6688,14 +6688,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1679336014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1679336014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1679336014" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1679848106" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6905,7 +6905,7 @@
         <v>10.4900000000000002</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>-10.6699999999999999</v>
+        <v>-10.6700000000000017</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>-10.5399999999999991</v>
@@ -6995,7 +6995,7 @@
         <v>-8.09999999999999787</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>-7.92999999999999972</v>
+        <v>-7.92999999999999883</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>-0.160000000000000009</v>
@@ -7128,7 +7128,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1679336014" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1679848106" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7137,14 +7137,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1679336014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1679336014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1679336014" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1679848106" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/autodock/res.xlsx
+++ b/autodock/res.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="mirjr"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" xWindow="240" yWindow="60" windowWidth="22261" windowHeight="12651" tabRatio="500"/>
+    <workbookView activeTab="7" xWindow="240" yWindow="60" windowWidth="22261" windowHeight="12651" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="A-amylase" sheetId="1" r:id="rId4"/>
@@ -23,17 +23,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1679848106" val="1062" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1679848106" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1679848106" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1679848106"/>
+      <pm:revision xmlns:pm="smNativeData" day="1680682242" val="1062" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1680682242" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1680682242" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1680682242"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="117">
   <si>
     <t>step 1</t>
   </si>
@@ -332,6 +332,15 @@
     <t>1.78 mM</t>
   </si>
   <si>
+    <t>16.77 nM</t>
+  </si>
+  <si>
+    <t>432.98 pM</t>
+  </si>
+  <si>
+    <t>566.79 pM</t>
+  </si>
+  <si>
     <t>1.25 mM</t>
   </si>
   <si>
@@ -341,6 +350,12 @@
     <t>1.23 mM</t>
   </si>
   <si>
+    <t>118.69 nM</t>
+  </si>
+  <si>
+    <t>197.10 nM</t>
+  </si>
+  <si>
     <t>250.48 nM</t>
   </si>
   <si>
@@ -351,6 +366,24 @@
   </si>
   <si>
     <t>3.23 mM</t>
+  </si>
+  <si>
+    <t>237.56 nM</t>
+  </si>
+  <si>
+    <t>189.57 nM</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>948.33 nM</t>
+  </si>
+  <si>
+    <t>13.89 nM</t>
+  </si>
+  <si>
+    <t>11.63 nM</t>
   </si>
 </sst>
 </file>
@@ -375,7 +408,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1679848106" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1680682242" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -390,7 +423,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1679848106" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1680682242" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -406,7 +439,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1679848106" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1680682242" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -421,7 +454,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1679848106" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1680682242" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -437,7 +470,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1679848106" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1680682242" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -452,7 +485,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1679848106" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1680682242" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -477,7 +510,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1679848106" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1680682242" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -488,7 +521,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1679848106" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1680682242" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -499,7 +532,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1679848106" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1680682242" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -521,7 +554,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1679848106"/>
+          <pm:border xmlns:pm="smNativeData" id="1680682242"/>
         </ext>
       </extLst>
     </border>
@@ -540,7 +573,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1679848106">
+          <pm:border xmlns:pm="smNativeData" id="1680682242">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -564,7 +597,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1679848106"/>
+          <pm:border xmlns:pm="smNativeData" id="1680682242"/>
         </ext>
       </extLst>
     </border>
@@ -583,7 +616,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1679848106"/>
+          <pm:border xmlns:pm="smNativeData" id="1680682242"/>
         </ext>
       </extLst>
     </border>
@@ -602,7 +635,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1679848106"/>
+          <pm:border xmlns:pm="smNativeData" id="1680682242"/>
         </ext>
       </extLst>
     </border>
@@ -612,16 +645,16 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -634,10 +667,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1679848106" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1680682242" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1679848106" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1680682242" count="1">
         <pm:color name="Color 24" rgb="FFC000"/>
       </pm:colors>
     </ext>
@@ -904,7 +937,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView view="normal" zoomScale="90" workbookViewId="0">
+    <sheetView view="normal" topLeftCell="A17" zoomScale="90" workbookViewId="0">
       <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
@@ -2314,7 +2347,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1679848106" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1680682242" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2323,14 +2356,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1679848106" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1680682242" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2343,7 +2376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="B1:J47"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="B25" workbookViewId="0">
+    <sheetView view="normal" zoomScale="90" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -3596,7 +3629,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1679848106" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1680682242" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3605,14 +3638,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1679848106" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1680682242" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3623,10 +3656,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="B1:J48"/>
+  <dimension ref="B1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:C47"/>
+    <sheetView view="normal" zoomScale="80" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -4382,7 +4415,7 @@
         <v>-5.59999999999999964</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>77.9899999999999949</v>
+        <v>77.9899999999999807</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>-10.3800000000000008</v>
@@ -4503,7 +4536,7 @@
         <v>-3.79999999999999982</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>1.63999999999999986</v>
+        <v>1.63999999999999968</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>-4.99000000000000021</v>
@@ -4651,7 +4684,7 @@
         <v>297.389999999999986</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>-8.6899999999999995</v>
+        <v>-8.68999999999999773</v>
       </c>
       <c r="F40" s="1" t="n">
         <v>-8.35999999999999943</v>
@@ -4706,7 +4739,7 @@
         <v>-11.0800000000000001</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>7.51999999999999957</v>
+        <v>7.51999999999999869</v>
       </c>
       <c r="E42" s="1" t="n">
         <v>-14.3599999999999994</v>
@@ -4799,7 +4832,7 @@
         <v>-8.48000000000000043</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>-7.84999999999999964</v>
+        <v>-7.84999999999999876</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>-0.629999999999999982</v>
@@ -4854,10 +4887,10 @@
         <v>183.300000000000011</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>-8.67999999999999972</v>
+        <v>-8.67999999999999794</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>-8.1899999999999995</v>
+        <v>-8.18999999999999773</v>
       </c>
       <c r="G47" s="1" t="n">
         <v>-0.490000000000000036</v>
@@ -4876,7 +4909,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1679848106" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1680682242" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4885,14 +4918,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1679848106" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1680682242" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4903,10 +4936,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="B2:J15"/>
+  <dimension ref="B2:J46"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView view="normal" zoomScale="90" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -5324,11 +5357,819 @@
         <v>-1.32000000000000006</v>
       </c>
     </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="1"/>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>-4.05999999999999961</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>1.05000000000000004</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>-5.25</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>-5.21999999999999975</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>-0.220000000000000018</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>1.18999999999999995</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>-0.220000000000000018</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>-7.33000000000000007</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>4.24000000000000021</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>-10.6099999999999994</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>-10.0199999999999996</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>-0.589999999999999947</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>-3.56000000000000005</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>-3.56000000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>-5.73000000000000043</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>62.6799999999999997</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>-7.51999999999999869</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>-7.30999999999999872</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>-0.210000000000000009</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>1.79000000000000004</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>-2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>-6.65000000000000036</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>13.2699999999999996</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>-9.9399999999999995</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>-9.8100000000000005</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>-0.119999999999999996</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>-3.33999999999999986</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>-3.33999999999999986</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>-3.74000000000000021</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>1.82000000000000011</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>-5.23000000000000043</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>-4.67999999999999972</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>-0.969999999999999929</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>1.49000000000000004</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>-0.969999999999999929</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>-5.32000000000000028</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>125.849999999999994</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>-9.19999999999999929</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>-8.84999999999999787</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>-4.65000000000000036</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>3.87999999999999989</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>-4.65000000000000036</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>-5.67999999999999972</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>68.0999999999999943</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>-7.17999999999999972</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>-6.75999999999999979</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>-0.420000000000000018</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>-1.91999999999999993</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>1.49000000000000004</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>-1.91999999999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>-12.1199999999999992</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>1.31000000000000005</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>-15.4000000000000004</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>-15.4000000000000004</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>-5.41000000000000014</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>-5.41000000000000014</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>-5.54999999999999982</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>-7.33999999999999986</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>-6.91000000000000014</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>-0.440000000000000036</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>-2.49000000000000021</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>1.79000000000000004</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>-2.49000000000000021</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>-4.28000000000000025</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>726.899999999999864</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>-8.16000000000000014</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>-8.08999999999999986</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>-0.0700000000000000089</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>-4.45000000000000018</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>3.87999999999999989</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>-4.45000000000000018</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>-4.29000000000000004</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>721.32000000000005</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>-9.0600000000000005</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>-8.67999999999999794</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>-0.379999999999999982</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>-8.24000000000000021</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>4.76999999999999957</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>-8.24000000000000021</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>-4.41000000000000014</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>580.659999999999968</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>-7.40000000000000036</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>-2.7799999999999998</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>2.98000000000000007</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>-2.7799999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>-6.62000000000000011</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>14.0800000000000001</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>-10.1999999999999993</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>-9.97000000000000064</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>-0.230000000000000027</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>-1.60000000000000009</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>3.58000000000000007</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>-1.60000000000000009</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="1"/>
+      <c r="C33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>-4.16000000000000014</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>892.519999999999982</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>-5.34999999999999964</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>-5.24000000000000021</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>-0.110000000000000009</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>-0.210000000000000009</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>1.18999999999999995</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <v>-0.210000000000000009</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>-6.26999999999999957</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>25.4499999999999993</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>-9.55000000000000071</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>-9.08000000000000007</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>-0.469999999999999929</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>-4.42999999999999972</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <v>-4.42999999999999972</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>-5.70000000000000018</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>66.769999999999996</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>-7.49000000000000021</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>-7.24000000000000021</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>-2.66000000000000014</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>1.79000000000000004</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <v>-2.66000000000000014</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>-6.96999999999999975</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>7.73000000000000043</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>-10.2599999999999998</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>-10.1899999999999995</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>-2.91999999999999993</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <v>-2.91999999999999993</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>-3.70000000000000018</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>1.91999999999999993</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>-5.20000000000000018</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>-4.98000000000000043</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>-0.220000000000000018</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>-0.959999999999999964</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>1.49000000000000004</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <v>-0.959999999999999964</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>-4.82000000000000028</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>291.300000000000011</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>-8.69999999999999929</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>-8.58000000000000007</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>-0.119999999999999996</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>-4.70000000000000018</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>3.87999999999999989</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <v>-4.70000000000000018</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>-5.58999999999999986</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>80.5199999999999818</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>-7.08000000000000007</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>-6.91000000000000014</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>-0.170000000000000018</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>-1.98000000000000007</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>1.49000000000000004</v>
+      </c>
+      <c r="J40" s="1" t="n">
+        <v>-1.98000000000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>-10.6099999999999994</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>-13.8900000000000006</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>-13.8900000000000006</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>-5.74000000000000021</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J41" s="1" t="n">
+        <v>-5.74000000000000021</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>-5.48000000000000043</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>95.9699999999999989</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>-7.26999999999999869</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>-6.90000000000000036</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>-0.370000000000000018</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>-2.54999999999999982</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>1.79000000000000004</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <v>-2.54999999999999982</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>-4.83000000000000007</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>287.879999999999995</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>-8.71000000000000085</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>-8.43999999999999773</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>-0.270000000000000018</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>3.87999999999999989</v>
+      </c>
+      <c r="J43" s="1" t="n">
+        <v>-3.9</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>-4.95999999999999996</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>230.990000000000009</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>-9.73000000000000043</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>-9.25999999999999979</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>-0.469999999999999929</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>-8.23000000000000043</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>4.76999999999999957</v>
+      </c>
+      <c r="J44" s="1" t="n">
+        <v>-8.23000000000000043</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>-4.37000000000000011</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>627.419999999999959</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>-7.34999999999999876</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>-6.79999999999999982</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>-3.02000000000000002</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>2.98000000000000007</v>
+      </c>
+      <c r="J45" s="1" t="n">
+        <v>-3.02000000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>-6.20000000000000018</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>28.7600000000000016</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>-9.76999999999999957</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>-9.72000000000000064</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>-2.72999999999999998</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>3.58000000000000007</v>
+      </c>
+      <c r="J46" s="1" t="n">
+        <v>-2.72999999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1679848106" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1680682242" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5337,14 +6178,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1679848106" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1680682242" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -5355,10 +6196,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="B2:J15"/>
+  <dimension ref="B2:J47"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView view="normal" topLeftCell="A21" zoomScale="80" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -5768,11 +6609,819 @@
         <v>-1.29000000000000004</v>
       </c>
     </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="1"/>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>-5.28000000000000025</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>135.080000000000013</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>-6.46999999999999975</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>-6.30999999999999961</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>-0.170000000000000018</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="I19" s="4" t="n">
+        <v>1.18999999999999995</v>
+      </c>
+      <c r="J19" s="4" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>-6.25</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>26.129999999999999</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>-9.52999999999999936</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>-9.33999999999999986</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>-3.99000000000000021</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>-3.99000000000000021</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>-7.99000000000000021</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>1.39999999999999991</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>-9.77999999999999936</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>-9.26999999999999957</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>-0.509999999999999964</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>-2.70999999999999996</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>1.79000000000000004</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>-2.70999999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>-6.15000000000000036</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>30.9200000000000017</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>-9.42999999999999972</v>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v>-8.89000000000000057</v>
+      </c>
+      <c r="G22" s="4" t="n">
+        <v>-0.540000000000000036</v>
+      </c>
+      <c r="H22" s="4" t="n">
+        <v>-1.95</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J22" s="4" t="n">
+        <v>-1.95</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>-5.61000000000000032</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>77.3400000000000034</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>-7.09999999999999964</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>-6.71999999999999975</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>-0.379999999999999982</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>-0.959999999999999964</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>1.49000000000000004</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>-0.959999999999999964</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>-6.57000000000000028</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>15.2200000000000006</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>-10.4499999999999993</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>-10.0199999999999996</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>-0.429999999999999982</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>-4.16000000000000014</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>3.87999999999999989</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>-4.16000000000000014</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>-8.16000000000000014</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>1.04000000000000004</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>-9.65000000000000036</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>-9.23000000000000043</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>-2.00999999999999979</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>-1.99000000000000004</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>1.49000000000000004</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>-2.00999999999999979</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>-12.7699999999999996</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>-16.0599999999999987</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>-16.0599999999999987</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>-4.83000000000000007</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>-4.83000000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>-7.65000000000000036</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>2.45000000000000018</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>-9.4399999999999995</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>-8.8100000000000005</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>-0.629999999999999982</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>-2.04999999999999982</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>1.79000000000000004</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>-2.04999999999999982</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>-6.61000000000000032</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>14.3100000000000005</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>-10.4900000000000002</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>-10.2300000000000004</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>-0.260000000000000009</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>-4.20999999999999996</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>3.87999999999999989</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>-4.20999999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>-0.130000000000000004</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <v>796.909999999999968</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>-4.91000000000000014</v>
+      </c>
+      <c r="F29" s="4" t="n">
+        <v>-4.44000000000000039</v>
+      </c>
+      <c r="G29" s="4" t="n">
+        <v>-0.460000000000000053</v>
+      </c>
+      <c r="H29" s="4" t="n">
+        <v>4.79000000000000004</v>
+      </c>
+      <c r="I29" s="4" t="n">
+        <v>4.76999999999999957</v>
+      </c>
+      <c r="J29" s="4" t="n">
+        <v>4.79000000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>-5.66999999999999993</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>69.730000000000004</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>-8.65000000000000036</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>-8.1899999999999995</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>-0.460000000000000053</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>-2.70999999999999996</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>2.98000000000000007</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>-2.70999999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="4" t="n">
+        <v>-2.79000000000000004</v>
+      </c>
+      <c r="D31" s="4" t="n">
+        <v>8.99000000000000021</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>-6.37000000000000011</v>
+      </c>
+      <c r="F31" s="4" t="n">
+        <v>-5.99000000000000021</v>
+      </c>
+      <c r="G31" s="4" t="n">
+        <v>-0.379999999999999982</v>
+      </c>
+      <c r="H31" s="4" t="n">
+        <v>-1.93999999999999986</v>
+      </c>
+      <c r="I31" s="4" t="n">
+        <v>3.58000000000000007</v>
+      </c>
+      <c r="J31" s="4" t="n">
+        <v>-1.93999999999999986</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="1"/>
+      <c r="C34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>-5.41999999999999993</v>
+      </c>
+      <c r="D35" s="4" t="n">
+        <v>107.159999999999997</v>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>-6.61000000000000032</v>
+      </c>
+      <c r="F35" s="4" t="n">
+        <v>-6.45000000000000018</v>
+      </c>
+      <c r="G35" s="4" t="n">
+        <v>-0.160000000000000009</v>
+      </c>
+      <c r="H35" s="4" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="I35" s="4" t="n">
+        <v>1.18999999999999995</v>
+      </c>
+      <c r="J35" s="4" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>-6.19000000000000039</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>28.8200000000000003</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>-9.48000000000000043</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>-9.24000000000000021</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>-0.239999999999999991</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>-7.91999999999999993</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>1.57000000000000011</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>-9.71000000000000085</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>-9.27999999999999936</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>-0.429999999999999982</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>-2.74000000000000021</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>1.79000000000000004</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <v>-2.74000000000000021</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="4" t="n">
+        <v>-6.34999999999999964</v>
+      </c>
+      <c r="D38" s="4" t="n">
+        <v>22.120000000000001</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>-9.63000000000000078</v>
+      </c>
+      <c r="F38" s="4" t="n">
+        <v>-9.16000000000000014</v>
+      </c>
+      <c r="G38" s="4" t="n">
+        <v>-0.469999999999999929</v>
+      </c>
+      <c r="H38" s="4" t="n">
+        <v>-1.99000000000000004</v>
+      </c>
+      <c r="I38" s="4" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J38" s="4" t="n">
+        <v>-1.99000000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>-5.83000000000000007</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>53.0799999999999983</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>-7.32000000000000028</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>-6.80999999999999961</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>-0.509999999999999964</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>1.49000000000000004</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>-7.01999999999999957</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>7.20000000000000018</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>-10.8900000000000006</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>-10.6300000000000008</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>-0.260000000000000009</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>-4.12999999999999989</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>3.87999999999999989</v>
+      </c>
+      <c r="J40" s="1" t="n">
+        <v>-4.12999999999999989</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>-7.37000000000000011</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>3.99000000000000021</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>-8.85999999999999943</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>-8.24000000000000021</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>-0.609999999999999964</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>-2.00999999999999979</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>1.49000000000000004</v>
+      </c>
+      <c r="J41" s="1" t="n">
+        <v>-2.00999999999999979</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>-12.6099999999999994</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>-15.9000000000000004</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>-15.9000000000000004</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>-4.66000000000000014</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <v>-4.66000000000000014</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>-7.69000000000000039</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>2.31000000000000005</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>-9.48000000000000043</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>-8.78999999999999915</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>-0.689999999999999947</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>-2.00999999999999979</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>1.79000000000000004</v>
+      </c>
+      <c r="J43" s="1" t="n">
+        <v>-2.00999999999999979</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>-7.69000000000000039</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>2.29000000000000004</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>-11.5700000000000003</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>-11.0299999999999994</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>-0.540000000000000036</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>-4.45999999999999996</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>3.87999999999999989</v>
+      </c>
+      <c r="J44" s="1" t="n">
+        <v>-4.45999999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="4" t="n">
+        <v>-4.07000000000000028</v>
+      </c>
+      <c r="D45" s="4" t="n">
+        <v>1.04000000000000004</v>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>-8.83999999999999986</v>
+      </c>
+      <c r="F45" s="4" t="n">
+        <v>-8.1899999999999995</v>
+      </c>
+      <c r="G45" s="4" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="H45" s="4" t="n">
+        <v>-6.32000000000000028</v>
+      </c>
+      <c r="I45" s="4" t="n">
+        <v>4.76999999999999957</v>
+      </c>
+      <c r="J45" s="4" t="n">
+        <v>-6.32000000000000028</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>-6.75999999999999979</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>11.0800000000000001</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>-9.74000000000000021</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>-9.27999999999999936</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>-0.469999999999999929</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>-2.25999999999999979</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>2.98000000000000007</v>
+      </c>
+      <c r="J46" s="1" t="n">
+        <v>-2.25999999999999979</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="4" t="n">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="D47" s="4" t="n">
+        <v>15.3599999999999994</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>-6.04999999999999982</v>
+      </c>
+      <c r="F47" s="4" t="n">
+        <v>-5.57000000000000028</v>
+      </c>
+      <c r="G47" s="4" t="n">
+        <v>-0.490000000000000036</v>
+      </c>
+      <c r="H47" s="4" t="n">
+        <v>-1.75</v>
+      </c>
+      <c r="I47" s="4" t="n">
+        <v>3.58000000000000007</v>
+      </c>
+      <c r="J47" s="4" t="n">
+        <v>-1.75</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1679848106" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1680682242" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5781,14 +7430,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1679848106" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1680682242" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -5799,10 +7448,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="B2:J15"/>
+  <dimension ref="B2:J49"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView view="normal" topLeftCell="C1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -6114,7 +7763,7 @@
         <v>-3.95999999999999996</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>-7.83999999999999986</v>
@@ -6143,7 +7792,7 @@
         <v>-3.91999999999999993</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>-8.69999999999999751</v>
@@ -6172,7 +7821,7 @@
         <v>-3.97000000000000028</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>-6.95000000000000018</v>
@@ -6220,13 +7869,821 @@
       </c>
       <c r="J15" s="1" t="n">
         <v>-3.43999999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>-3.97000000000000028</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>1.22999999999999998</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>-5.16000000000000014</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>-4.92999999999999972</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>-0.239999999999999991</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>-0.170000000000000018</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>1.18999999999999995</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>-0.170000000000000018</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>-5.37999999999999989</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>114.010000000000005</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>-8.66000000000000014</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>-8.24000000000000021</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>-0.429999999999999982</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>-4.45000000000000018</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>-4.45000000000000018</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>-6.00999999999999979</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>39.5300000000000011</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>-7.79999999999999982</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>-7.49000000000000021</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>-0.310000000000000009</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>-2.56999999999999984</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>1.79000000000000004</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>-2.56999999999999984</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>-5.03000000000000025</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>206.110000000000014</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>-8.3100000000000005</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>-8.09999999999999964</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>-0.210000000000000009</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>-3.89000000000000021</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>-3.89000000000000021</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>-3.98000000000000007</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>1.19999999999999996</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>-5.46999999999999975</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>-4.95000000000000018</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>-0.530000000000000071</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>-0.969999999999999929</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>1.49000000000000004</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>-0.969999999999999929</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>-4.16999999999999993</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>871.92999999999995</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>-8.05000000000000071</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>-7.95000000000000018</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>-5.16000000000000014</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>3.87999999999999989</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>-5.16000000000000014</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>-6.45000000000000018</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>18.620000000000001</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>-7.94000000000000039</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>-7.50999999999999979</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>-0.440000000000000036</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>-1.98000000000000007</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>1.49000000000000004</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>-1.98000000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>-9.44999999999999929</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>-12.7300000000000004</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>-12.7300000000000004</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>-4.12000000000000011</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>-4.12000000000000011</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>-6.16999999999999993</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>29.8599999999999994</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>-7.95999999999999996</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>-7.55999999999999961</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>-2.02000000000000002</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>1.79000000000000004</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>-2.02000000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>-3.58000000000000007</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>2.37999999999999989</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>-7.45999999999999996</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>-6.90000000000000036</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>-3.85</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>3.87999999999999989</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>-3.85</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>-3.2200000000000002</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>4.33999999999999986</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>-7.71999999999999975</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>-0.280000000000000036</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>-10.0199999999999996</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>4.76999999999999957</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>-10.0199999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>-4.25999999999999979</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>755.970000000000027</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>-7.24000000000000021</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>-6.25</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>-0.990000000000000036</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>-2.18000000000000016</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>2.98000000000000007</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>-2.18000000000000016</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>-5.59999999999999964</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>78.5100000000000051</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>-9.17999999999999972</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>-8.91999999999999993</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>-0.260000000000000009</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>-2.37000000000000011</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>3.58000000000000007</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>-2.37000000000000011</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="1"/>
+      <c r="C36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>-3.99000000000000021</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>1.18999999999999995</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>-5.17999999999999972</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>-4.98000000000000043</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>-0.210000000000000009</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>-0.210000000000000009</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>1.18999999999999995</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <v>-0.210000000000000009</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>-5.24000000000000021</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>144.430000000000007</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>-8.51999999999999957</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>-8.05000000000000071</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>-0.469999999999999929</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>-3.5299999999999998</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <v>-3.5299999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>-5.66999999999999993</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>69.75</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>-7.45999999999999996</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>-7.19000000000000039</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>-0.270000000000000018</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>-2.12000000000000011</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>1.79000000000000004</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <v>-2.12000000000000011</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>-4.75</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>330.889999999999986</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>-8.02999999999999936</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>-7.74000000000000021</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>-3.50999999999999979</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J40" s="1" t="n">
+        <v>-3.50999999999999979</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>-4.09999999999999964</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>989.110000000000014</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>-5.58999999999999986</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>-5.21999999999999975</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>-0.370000000000000018</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>-0.959999999999999964</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>1.49000000000000004</v>
+      </c>
+      <c r="J41" s="1" t="n">
+        <v>-0.959999999999999964</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>-3.29999999999999982</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>3.81000000000000014</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>-7.17999999999999972</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>-6.79999999999999982</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>-0.379999999999999982</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>-4.05999999999999961</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>3.87999999999999989</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <v>-4.05999999999999961</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>-6.16999999999999993</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>29.8099999999999987</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>-7.66999999999999993</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>-7.29000000000000004</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>-0.379999999999999982</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>-1.95999999999999996</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>1.49000000000000004</v>
+      </c>
+      <c r="J43" s="1" t="n">
+        <v>-1.95999999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>-9.15000000000000036</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>-12.4299999999999997</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>-12.4299999999999997</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>-4.41999999999999993</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J44" s="1" t="n">
+        <v>-4.41999999999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>-5.87000000000000011</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>50.1700000000000017</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>-7.66000000000000014</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>-7.42999999999999972</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>-0.230000000000000027</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>-2.45999999999999996</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>1.79000000000000004</v>
+      </c>
+      <c r="J45" s="1" t="n">
+        <v>-2.45999999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>-3.93999999999999986</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>1.30000000000000004</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>-7.82000000000000028</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>-7.54999999999999982</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>-0.260000000000000009</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>-3.77000000000000002</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>3.87999999999999989</v>
+      </c>
+      <c r="J46" s="1" t="n">
+        <v>-3.77000000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>-4.42999999999999972</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>569.740000000000009</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>-9.19999999999999929</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>-9.07000000000000028</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>-0.130000000000000004</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>-5.54000000000000004</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>4.76999999999999957</v>
+      </c>
+      <c r="J47" s="1" t="n">
+        <v>-5.54000000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>-4.38999999999999968</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>607.950000000000045</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>-7.37000000000000011</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>-6.62000000000000011</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>-2.20000000000000018</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>2.98000000000000007</v>
+      </c>
+      <c r="J48" s="1" t="n">
+        <v>-2.20000000000000018</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>-5.17999999999999972</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>158.460000000000008</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>-8.75999999999999979</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>-8.4399999999999995</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <v>-0.330000000000000027</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <v>-3.29000000000000004</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>3.58000000000000007</v>
+      </c>
+      <c r="J49" s="1" t="n">
+        <v>-3.29000000000000004</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1679848106" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1680682242" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6235,14 +8692,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1679848106" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1680682242" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6253,10 +8710,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="B2:J15"/>
+  <dimension ref="B2:J48"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView view="normal" topLeftCell="A17" zoomScale="80" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -6509,7 +8966,7 @@
         <v>-9.00999999999999979</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>-12.2899999999999991</v>
@@ -6567,7 +9024,7 @@
         <v>-3.2200000000000002</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>-7.09999999999999964</v>
@@ -6596,7 +9053,7 @@
         <v>-3.10999999999999988</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>-7.88999999999999879</v>
@@ -6625,7 +9082,7 @@
         <v>-3.39999999999999991</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>-6.37999999999999989</v>
@@ -6673,13 +9130,821 @@
       </c>
       <c r="J15" s="1" t="n">
         <v>-3.93999999999999986</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="1"/>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>-3.45000000000000018</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>2.95999999999999996</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>-4.63999999999999968</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>-4.58000000000000007</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>-0.179999999999999982</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>1.18999999999999995</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>-0.179999999999999982</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>-5.24000000000000021</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>143.439999999999998</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>-8.51999999999999957</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>-7.76999999999999957</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>-0.759999999999999964</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>-3.68000000000000016</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>-3.68000000000000016</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>-4.62000000000000011</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>412.980000000000018</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>-6.41000000000000014</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>-5.83000000000000007</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>-0.569999999999999929</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>-2.10000000000000009</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>1.79000000000000004</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>-2.10000000000000009</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>-5.12000000000000011</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>177.939999999999998</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>-8.40000000000000036</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>-8.11999999999999922</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>-0.270000000000000018</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>-3.29000000000000004</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>-3.29000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>-4.19000000000000039</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>850.269999999999982</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>-5.67999999999999972</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>-5.04000000000000004</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>-0.640000000000000036</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>1.49000000000000004</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>-4.83999999999999986</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>281.610000000000014</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>-8.72000000000000064</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>-8.14000000000000057</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>-0.579999999999999982</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>-4.11000000000000032</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>3.87999999999999989</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>-4.11000000000000032</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>-5.28000000000000025</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>134.77000000000001</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>-6.76999999999999957</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>-6.08999999999999986</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>-0.680000000000000071</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>-1.96999999999999993</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>1.49000000000000004</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>-1.96999999999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>-9.03999999999999915</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>-12.3200000000000003</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>-12.3200000000000003</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>-5.57000000000000028</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>-5.57000000000000028</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>-5.08999999999999986</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>185.699999999999989</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>-6.87999999999999989</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>-6.38999999999999968</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>-0.490000000000000036</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>-2.49000000000000021</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>1.79000000000000004</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>-2.49000000000000021</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>-3.2200000000000002</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>-7.09999999999999964</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>-6.70999999999999996</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>-0.390000000000000036</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>-4.03000000000000025</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>3.87999999999999989</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>-4.03000000000000025</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>-4.29999999999999982</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>704.399999999999977</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>-9.07000000000000028</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>-8.52999999999999936</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>-6.34999999999999964</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>4.76999999999999957</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>-6.34999999999999964</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>-3.64999999999999991</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>2.10000000000000009</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>-6.63999999999999968</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>-6.53000000000000025</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>-2.85</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>2.98000000000000007</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>-2.85</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>-5.37999999999999989</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>113.480000000000004</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>-8.96000000000000085</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>-8.19999999999999929</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>-0.759999999999999964</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>-2.62999999999999989</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>3.58000000000000007</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>-2.62999999999999989</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="1"/>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>2.70000000000000018</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>4.70000000000000018</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>-4.66000000000000014</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>-0.260000000000000009</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>1.18999999999999995</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <v>-0.260000000000000009</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>-5.19000000000000039</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>157.210000000000008</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>-8.47000000000000064</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>-7.96999999999999975</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>-4.03000000000000025</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <v>-4.03000000000000025</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>-5.63999999999999968</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>73.7199999999999989</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>-7.42999999999999972</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>-6.83999999999999986</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>-0.579999999999999982</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>-1.88999999999999986</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>1.79000000000000004</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <v>-1.88999999999999986</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>-5.15000000000000036</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>168.009999999999991</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>-8.42999999999999972</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>-8.08999999999999986</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>-3.52000000000000002</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <v>-3.52000000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>-3.56999999999999984</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>2.39999999999999991</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>-5.05999999999999961</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>-4.54999999999999982</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>-0.509999999999999964</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>-0.990000000000000036</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>1.49000000000000004</v>
+      </c>
+      <c r="J40" s="1" t="n">
+        <v>-0.990000000000000036</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>-3.7799999999999998</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>-7.66000000000000014</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>-7.40000000000000036</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>-0.260000000000000009</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>-3.99000000000000021</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>3.87999999999999989</v>
+      </c>
+      <c r="J41" s="1" t="n">
+        <v>-3.99000000000000021</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>-5.66000000000000014</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>71.1400000000000006</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>-7.15000000000000036</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>-6.58999999999999986</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>-0.560000000000000053</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>-1.95</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>1.49000000000000004</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <v>-1.95</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>-9.16999999999999993</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>-12.4499999999999993</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>-12.4499999999999993</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>-4.42999999999999972</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J43" s="1" t="n">
+        <v>-4.42999999999999972</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>-5.79000000000000004</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>57.0600000000000023</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>-7.58000000000000007</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>-7.49000000000000021</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>-2.12999999999999989</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>1.79000000000000004</v>
+      </c>
+      <c r="J44" s="1" t="n">
+        <v>-2.12999999999999989</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>-3.35000000000000009</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>3.52000000000000002</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>-7.21999999999999975</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>-6.79000000000000004</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>-0.429999999999999982</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>-4.62999999999999989</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>3.87999999999999989</v>
+      </c>
+      <c r="J45" s="1" t="n">
+        <v>-4.62999999999999989</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>-3.29999999999999982</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>3.79999999999999982</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>-8.07000000000000028</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>-7.79000000000000004</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>-9.33999999999999986</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>4.76999999999999957</v>
+      </c>
+      <c r="J46" s="1" t="n">
+        <v>-9.33999999999999986</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>-3.70000000000000018</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>-6.67999999999999972</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>-6.01999999999999957</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>-0.660000000000000053</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>-2.20999999999999996</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>2.98000000000000007</v>
+      </c>
+      <c r="J47" s="1" t="n">
+        <v>-2.20999999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>-4.20999999999999996</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>824.279999999999973</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>-7.79000000000000004</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>-7.63999999999999968</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>-2.7200000000000002</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>3.58000000000000007</v>
+      </c>
+      <c r="J48" s="1" t="n">
+        <v>-2.7200000000000002</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1679848106" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1680682242" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6688,14 +9953,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1679848106" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1680682242" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6706,10 +9971,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="B2:J15"/>
+  <dimension ref="B2:J48"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A29" zoomScale="90" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -7124,11 +10389,815 @@
         <v>1.91999999999999993</v>
       </c>
     </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="1"/>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>-5.29000000000000004</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>131.990000000000009</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>-6.49000000000000021</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>-6.42999999999999972</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>1.18999999999999995</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>-3.58000000000000007</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>2.37999999999999989</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>-6.86000000000000032</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>-6.66000000000000014</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>-4.42999999999999972</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>-4.42999999999999972</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>-7.37999999999999989</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>3.87999999999999989</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>-9.16999999999999993</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>-9.00999999999999979</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>-0.160000000000000009</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>-2.81999999999999993</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>1.79000000000000004</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>-2.81999999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>4.03000000000000025</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0.740000000000000036</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>0.880000000000000071</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>-0.130000000000000004</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>-1.68999999999999995</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>-1.68999999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>-5.69000000000000039</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>67.0799999999999983</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>-7.19000000000000039</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>-6.82000000000000028</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>-0.359999999999999964</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>-0.969999999999999929</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>1.49000000000000004</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>-0.969999999999999929</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>-6.20000000000000018</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>28.5300000000000011</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>-10.0800000000000001</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>-10.1300000000000008</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>3.87999999999999989</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>-1.85</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>-8.22000000000000064</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>-9.71000000000000085</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>-9.32000000000000028</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>-0.390000000000000036</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>-1.56000000000000005</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>1.49000000000000004</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>-1.56000000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>-10.7200000000000006</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>-14</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>-14</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>-3.79999999999999982</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>-3.79999999999999982</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>-6.99000000000000021</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>7.58000000000000007</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>-8.76999999999999957</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>-8.36999999999999922</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>-1.63999999999999986</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>1.79000000000000004</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>-1.63999999999999986</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>-7.46999999999999975</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>3.35999999999999988</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>-11.3399999999999999</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>-10.8599999999999994</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>-0.479999999999999982</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>-4.53000000000000025</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>3.87999999999999989</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>-4.53000000000000025</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>2.70000000000000018</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="n">
+        <v>-2.06999999999999984</v>
+      </c>
+      <c r="F29" s="4" t="n">
+        <v>-1.45999999999999996</v>
+      </c>
+      <c r="G29" s="4" t="n">
+        <v>-0.609999999999999964</v>
+      </c>
+      <c r="H29" s="4" t="n">
+        <v>-2.77000000000000002</v>
+      </c>
+      <c r="I29" s="4" t="n">
+        <v>4.76999999999999957</v>
+      </c>
+      <c r="J29" s="4" t="n">
+        <v>-2.77000000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>-6.20000000000000018</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>28.3099999999999987</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>-9.1899999999999995</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>-8.49000000000000021</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>-0.689999999999999947</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>2.98000000000000007</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>-2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>5.51999999999999957</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>1.93999999999999986</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>2.18000000000000016</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>3.58000000000000007</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="1"/>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>-5.32000000000000028</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>125.280000000000001</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>-6.51999999999999957</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>-6.48000000000000043</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>-0.220000000000000018</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>1.18999999999999995</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <v>-0.220000000000000018</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>-3.4700000000000002</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>2.83999999999999986</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>-6.75999999999999979</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>-6.70999999999999996</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>-4.28000000000000025</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <v>-4.28000000000000025</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>-7.34999999999999964</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>4.08000000000000007</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>-9.14000000000000057</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>-8.98000000000000043</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>-0.170000000000000018</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>-2.81999999999999993</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>1.79000000000000004</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <v>-2.81999999999999993</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>1.92999999999999989</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>-1.3600000000000001</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>-1.28000000000000004</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>-0.0700000000000000089</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>-5.62999999999999989</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>74.769999999999996</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>-7.12000000000000011</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>-6.75999999999999979</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>-0.359999999999999964</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>-0.969999999999999929</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>1.49000000000000004</v>
+      </c>
+      <c r="J40" s="1" t="n">
+        <v>-0.969999999999999929</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>-5.87999999999999989</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>49.3599999999999994</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>-9.75</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>-9.69999999999999929</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>-5.26999999999999957</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>3.87999999999999989</v>
+      </c>
+      <c r="J41" s="1" t="n">
+        <v>-5.26999999999999957</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>-8.14000000000000057</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>1.09000000000000007</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>-9.63000000000000078</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>-9.33000000000000007</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>-1.57000000000000011</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>1.49000000000000004</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <v>-1.57000000000000011</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>-10.8200000000000003</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>-14.1099999999999994</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>-14.1099999999999994</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>-3.77000000000000002</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="J43" s="1" t="n">
+        <v>-3.77000000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>-6.83999999999999986</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>9.66999999999999993</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>-8.63000000000000078</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>-8.4399999999999995</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>-2.62999999999999989</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>1.79000000000000004</v>
+      </c>
+      <c r="J44" s="1" t="n">
+        <v>-2.62999999999999989</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>-6.62000000000000011</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>14.0700000000000003</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>-10.3100000000000005</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>-4.34999999999999964</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>3.87999999999999989</v>
+      </c>
+      <c r="J45" s="1" t="n">
+        <v>-4.34999999999999964</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="4" t="n">
+        <v>2.49000000000000021</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4" t="n">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="F46" s="4" t="n">
+        <v>-1.53000000000000007</v>
+      </c>
+      <c r="G46" s="4" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="H46" s="4" t="n">
+        <v>-3.33000000000000007</v>
+      </c>
+      <c r="I46" s="4" t="n">
+        <v>4.76999999999999957</v>
+      </c>
+      <c r="J46" s="4" t="n">
+        <v>-3.33000000000000007</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>-7.16999999999999993</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>5.54999999999999982</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>-10.1500000000000004</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>-9.75</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>-2.58999999999999986</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>2.98000000000000007</v>
+      </c>
+      <c r="J47" s="1" t="n">
+        <v>-2.58999999999999986</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>2.18000000000000016</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>-1.39999999999999991</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>-1.32000000000000006</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>1.22999999999999998</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>3.58000000000000007</v>
+      </c>
+      <c r="J48" s="1" t="n">
+        <v>1.22999999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1679848106" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1680682242" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7137,14 +11206,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1679848106" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1679848106" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1680682242" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/autodock/res.xlsx
+++ b/autodock/res.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="mirjr"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="7" xWindow="240" yWindow="60" windowWidth="22261" windowHeight="12651" tabRatio="500"/>
+    <workbookView activeTab="3" xWindow="240" yWindow="60" windowWidth="22261" windowHeight="12651" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="A-amylase" sheetId="1" r:id="rId4"/>
@@ -23,10 +23,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1680682242" val="1062" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1680682242" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1680682242" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1680682242"/>
+      <pm:revision xmlns:pm="smNativeData" day="1686663167" val="1062" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1686663167" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1686663167" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1686663167"/>
     </ext>
   </extLst>
 </workbook>
@@ -408,7 +408,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1680682242" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1686663167" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -423,7 +423,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1680682242" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1686663167" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -439,7 +439,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1680682242" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1686663167" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -454,7 +454,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1680682242" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1686663167" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -470,7 +470,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1680682242" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1686663167" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -485,7 +485,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1680682242" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1686663167" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -510,7 +510,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1680682242" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1686663167" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -521,7 +521,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1680682242" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1686663167" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -532,7 +532,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1680682242" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1686663167" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -554,7 +554,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1680682242"/>
+          <pm:border xmlns:pm="smNativeData" id="1686663167"/>
         </ext>
       </extLst>
     </border>
@@ -573,7 +573,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1680682242">
+          <pm:border xmlns:pm="smNativeData" id="1686663167">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -597,7 +597,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1680682242"/>
+          <pm:border xmlns:pm="smNativeData" id="1686663167"/>
         </ext>
       </extLst>
     </border>
@@ -616,7 +616,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1680682242"/>
+          <pm:border xmlns:pm="smNativeData" id="1686663167"/>
         </ext>
       </extLst>
     </border>
@@ -635,7 +635,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1680682242"/>
+          <pm:border xmlns:pm="smNativeData" id="1686663167"/>
         </ext>
       </extLst>
     </border>
@@ -645,16 +645,16 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -667,10 +667,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1680682242" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1686663167" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1680682242" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1686663167" count="1">
         <pm:color name="Color 24" rgb="FFC000"/>
       </pm:colors>
     </ext>
@@ -1233,7 +1233,7 @@
         <v>-7.79000000000000004</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>-7.42999999999999883</v>
+        <v>-7.42999999999999972</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>-0.359999999999999964</v>
@@ -2347,7 +2347,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1680682242" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1686663167" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2356,14 +2356,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1680682242" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1686663167" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3025,7 +3025,7 @@
         <v>-7.48000000000000043</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>-7.21999999999999886</v>
+        <v>-7.21999999999999975</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>-0.260000000000000009</v>
@@ -3491,10 +3491,10 @@
         <v>29.3900000000000006</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>-7.96999999999999886</v>
+        <v>-7.96999999999999975</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>-7.67999999999999883</v>
+        <v>-7.67999999999999972</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>-0.29</v>
@@ -3629,7 +3629,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1680682242" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1686663167" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3638,14 +3638,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1680682242" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1686663167" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4629,7 +4629,7 @@
         <v>-8.75</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>-7.96999999999999975</v>
+        <v>-7.96999999999999886</v>
       </c>
       <c r="G38" s="1" t="n">
         <v>-0.780000000000000071</v>
@@ -4909,7 +4909,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1680682242" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1686663167" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4918,14 +4918,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1680682242" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1686663167" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4938,7 +4938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="B2:J46"/>
   <sheetViews>
-    <sheetView view="normal" zoomScale="90" workbookViewId="0">
+    <sheetView tabSelected="1" view="normal" zoomScale="90" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -5194,10 +5194,10 @@
         <v>10.3900000000000006</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>-14.1700000000000017</v>
+        <v>-14.1699999999999999</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>-14.1700000000000017</v>
+        <v>-14.1699999999999999</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>0</v>
@@ -6169,7 +6169,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1680682242" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1686663167" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6178,14 +6178,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1680682242" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1686663167" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6850,10 +6850,10 @@
         <v>100</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>-16.0599999999999987</v>
+        <v>-16.0599999999999952</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>-16.0599999999999987</v>
+        <v>-16.0599999999999952</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>0</v>
@@ -6934,7 +6934,7 @@
         <v>-0.130000000000000004</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>796.909999999999968</v>
+        <v>796.909999999999854</v>
       </c>
       <c r="E29" s="4" t="n">
         <v>-4.91000000000000014</v>
@@ -6969,7 +6969,7 @@
         <v>-8.65000000000000036</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>-8.1899999999999995</v>
+        <v>-8.18999999999999773</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>-0.460000000000000053</v>
@@ -7344,7 +7344,7 @@
         <v>-8.83999999999999986</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>-8.1899999999999995</v>
+        <v>-8.18999999999999773</v>
       </c>
       <c r="G45" s="4" t="n">
         <v>-0.65</v>
@@ -7421,7 +7421,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1680682242" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1686663167" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7430,14 +7430,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1680682242" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1686663167" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7740,7 +7740,7 @@
         <v>-8.08000000000000007</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>-7.71999999999999886</v>
+        <v>-7.71999999999999975</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>-0.359999999999999964</v>
@@ -7999,7 +7999,7 @@
         <v>-8.3100000000000005</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>-8.09999999999999964</v>
+        <v>-8.09999999999999787</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>-0.210000000000000009</v>
@@ -8051,7 +8051,7 @@
         <v>-4.16999999999999993</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>871.92999999999995</v>
+        <v>871.929999999999836</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>-8.05000000000000071</v>
@@ -8086,7 +8086,7 @@
         <v>-7.94000000000000039</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>-7.50999999999999979</v>
+        <v>-7.5099999999999989</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>-0.440000000000000036</v>
@@ -8144,7 +8144,7 @@
         <v>-7.95999999999999996</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>-7.55999999999999961</v>
+        <v>-7.55999999999999872</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>-0.4</v>
@@ -8202,7 +8202,7 @@
         <v>-8</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>-7.71999999999999975</v>
+        <v>-7.71999999999999886</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>-0.280000000000000036</v>
@@ -8548,7 +8548,7 @@
         <v>-7.66000000000000014</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>-7.42999999999999972</v>
+        <v>-7.42999999999999883</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>-0.230000000000000027</v>
@@ -8661,10 +8661,10 @@
         <v>158.460000000000008</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>-8.75999999999999979</v>
+        <v>-8.75999999999999801</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>-8.4399999999999995</v>
+        <v>-8.43999999999999773</v>
       </c>
       <c r="G49" s="1" t="n">
         <v>-0.330000000000000027</v>
@@ -8683,7 +8683,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1680682242" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1686663167" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -8692,14 +8692,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1680682242" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1686663167" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9179,13 +9179,13 @@
         <v>-0.06</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>-0.179999999999999982</v>
+        <v>-0.179999999999999964</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>1.18999999999999995</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>-0.179999999999999982</v>
+        <v>-0.179999999999999964</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -9202,10 +9202,10 @@
         <v>-8.51999999999999957</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>-7.76999999999999957</v>
+        <v>-7.76999999999999869</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>-0.759999999999999964</v>
+        <v>-0.759999999999999876</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>-3.68000000000000016</v>
@@ -9350,7 +9350,7 @@
         <v>-6.08999999999999986</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>-0.680000000000000071</v>
+        <v>-0.68000000000000016</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>-1.96999999999999993</v>
@@ -9524,7 +9524,7 @@
         <v>-8.19999999999999929</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>-0.759999999999999964</v>
+        <v>-0.759999999999999876</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>-2.62999999999999989</v>
@@ -9606,7 +9606,7 @@
         <v>-8.47000000000000064</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>-7.96999999999999975</v>
+        <v>-7.96999999999999886</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>-0.5</v>
@@ -9632,7 +9632,7 @@
         <v>73.7199999999999989</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>-7.42999999999999972</v>
+        <v>-7.42999999999999883</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>-6.83999999999999986</v>
@@ -9661,7 +9661,7 @@
         <v>168.009999999999991</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>-8.42999999999999972</v>
+        <v>-8.42999999999999794</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>-8.08999999999999986</v>
@@ -9771,7 +9771,7 @@
         <v>18</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>-9.16999999999999993</v>
+        <v>-9.17000000000000171</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>112</v>
@@ -9835,7 +9835,7 @@
         <v>3.52000000000000002</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>-7.21999999999999975</v>
+        <v>-7.21999999999999886</v>
       </c>
       <c r="F45" s="1" t="n">
         <v>-6.79000000000000004</v>
@@ -9899,7 +9899,7 @@
         <v>-6.01999999999999957</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>-0.660000000000000053</v>
+        <v>-0.660000000000000142</v>
       </c>
       <c r="H47" s="1" t="n">
         <v>-2.20999999999999996</v>
@@ -9919,13 +9919,13 @@
         <v>-4.20999999999999996</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>824.279999999999973</v>
+        <v>824.279999999999859</v>
       </c>
       <c r="E48" s="1" t="n">
         <v>-7.79000000000000004</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>-7.63999999999999968</v>
+        <v>-7.63999999999999879</v>
       </c>
       <c r="G48" s="1" t="n">
         <v>-0.15</v>
@@ -9944,7 +9944,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1680682242" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1686663167" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9953,14 +9953,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1680682242" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1686663167" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9973,8 +9973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="B2:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A29" zoomScale="90" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView view="normal" zoomScale="90" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -10170,7 +10170,7 @@
         <v>10.4900000000000002</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>-10.6700000000000017</v>
+        <v>-10.6699999999999999</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>-10.5399999999999991</v>
@@ -10260,7 +10260,7 @@
         <v>-8.09999999999999787</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>-7.92999999999999883</v>
+        <v>-7.92999999999999972</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>-0.160000000000000009</v>
@@ -10485,7 +10485,7 @@
         <v>3.87999999999999989</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>-9.16999999999999993</v>
+        <v>-9.17000000000000171</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>-9.00999999999999979</v>
@@ -10668,13 +10668,13 @@
         <v>-0.4</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>-1.63999999999999986</v>
+        <v>-1.63999999999999968</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>1.79000000000000004</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>-1.63999999999999986</v>
+        <v>-1.63999999999999968</v>
       </c>
     </row>
     <row r="28" spans="2:10">
@@ -10682,13 +10682,13 @@
         <v>21</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>-7.46999999999999975</v>
+        <v>-7.46999999999999886</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>3.35999999999999988</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>-11.3399999999999999</v>
+        <v>-11.3400000000000016</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>-10.8599999999999994</v>
@@ -10881,7 +10881,7 @@
         <v>13</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>-7.34999999999999964</v>
+        <v>-7.34999999999999876</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>4.08000000000000007</v>
@@ -10942,7 +10942,7 @@
         <v>-5.62999999999999989</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>74.769999999999996</v>
+        <v>74.7699999999999818</v>
       </c>
       <c r="E40" s="1" t="n">
         <v>-7.12000000000000011</v>
@@ -11058,13 +11058,13 @@
         <v>-6.83999999999999986</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>9.66999999999999993</v>
+        <v>9.67000000000000171</v>
       </c>
       <c r="E44" s="1" t="n">
         <v>-8.63000000000000078</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>-8.4399999999999995</v>
+        <v>-8.43999999999999773</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>-0.19</v>
@@ -11197,7 +11197,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1680682242" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1686663167" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -11206,14 +11206,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1680682242" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1680682242" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1686663167" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/autodock/res.xlsx
+++ b/autodock/res.xlsx
@@ -23,10 +23,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1686663167" val="1062" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1686663167" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1686663167" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1686663167"/>
+      <pm:revision xmlns:pm="smNativeData" day="1686984805" val="1062" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1686984805" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1686984805" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1686984805"/>
     </ext>
   </extLst>
 </workbook>
@@ -400,7 +400,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -408,7 +408,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1686663167" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1686984805" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -423,7 +423,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1686663167" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1686984805" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -439,7 +439,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1686663167" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1686984805" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -454,7 +454,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1686663167" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1686984805" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -470,7 +470,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1686663167" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1686984805" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -485,7 +485,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1686663167" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1686984805" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -493,8 +493,23 @@
         </ext>
       </extLst>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1686984805" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,7 +525,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1686663167" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1686984805" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -521,24 +536,13 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1686663167" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1686663167" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1686984805" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -554,7 +558,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1686663167"/>
+          <pm:border xmlns:pm="smNativeData" id="1686984805"/>
         </ext>
       </extLst>
     </border>
@@ -573,7 +577,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1686663167">
+          <pm:border xmlns:pm="smNativeData" id="1686984805">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -597,7 +601,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1686663167"/>
+          <pm:border xmlns:pm="smNativeData" id="1686984805"/>
         </ext>
       </extLst>
     </border>
@@ -616,26 +620,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1686663167"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1686663167"/>
+          <pm:border xmlns:pm="smNativeData" id="1686984805"/>
         </ext>
       </extLst>
     </border>
@@ -643,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -660,6 +645,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -667,10 +655,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1686663167" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1686984805" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1686663167" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1686984805" count="1">
         <pm:color name="Color 24" rgb="FFC000"/>
       </pm:colors>
     </ext>
@@ -1233,7 +1221,7 @@
         <v>-7.79000000000000004</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>-7.42999999999999972</v>
+        <v>-7.42999999999999883</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>-0.359999999999999964</v>
@@ -2347,7 +2335,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1686663167" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1686984805" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2356,14 +2344,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1686984805" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1686984805" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1686663167" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1686984805" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3025,7 +3013,7 @@
         <v>-7.48000000000000043</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>-7.21999999999999975</v>
+        <v>-7.21999999999999886</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>-0.260000000000000009</v>
@@ -3491,10 +3479,10 @@
         <v>29.3900000000000006</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>-7.96999999999999975</v>
+        <v>-7.96999999999999886</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>-7.67999999999999972</v>
+        <v>-7.67999999999999883</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>-0.29</v>
@@ -3629,7 +3617,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1686663167" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1686984805" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3638,14 +3626,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1686984805" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1686984805" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1686663167" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1686984805" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4629,7 +4617,7 @@
         <v>-8.75</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>-7.96999999999999886</v>
+        <v>-7.96999999999999975</v>
       </c>
       <c r="G38" s="1" t="n">
         <v>-0.780000000000000071</v>
@@ -4909,7 +4897,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1686663167" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1686984805" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4918,14 +4906,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1686984805" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1686984805" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1686663167" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1686984805" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4939,7 +4927,7 @@
   <dimension ref="B2:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" zoomScale="90" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -5010,7 +4998,7 @@
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1" t="n">
@@ -5126,7 +5114,7 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="1" t="n">
@@ -5155,7 +5143,7 @@
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="1" t="n">
@@ -5194,10 +5182,10 @@
         <v>10.3900000000000006</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>-14.1699999999999999</v>
+        <v>-14.1700000000000017</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>-14.1699999999999999</v>
+        <v>-14.1700000000000017</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>0</v>
@@ -5213,7 +5201,7 @@
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="1" t="n">
@@ -5242,7 +5230,7 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="1" t="n">
@@ -5329,7 +5317,7 @@
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="1" t="n">
@@ -6169,7 +6157,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1686663167" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1686984805" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6178,14 +6166,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1686984805" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1686984805" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1686663167" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1686984805" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7421,7 +7409,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1686663167" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1686984805" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7430,14 +7418,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1686984805" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1686984805" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1686663167" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1686984805" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7740,7 +7728,7 @@
         <v>-8.08000000000000007</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>-7.71999999999999975</v>
+        <v>-7.71999999999999886</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>-0.359999999999999964</v>
@@ -8086,7 +8074,7 @@
         <v>-7.94000000000000039</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>-7.5099999999999989</v>
+        <v>-7.50999999999999979</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>-0.440000000000000036</v>
@@ -8202,7 +8190,7 @@
         <v>-8</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>-7.71999999999999886</v>
+        <v>-7.71999999999999975</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>-0.280000000000000036</v>
@@ -8548,7 +8536,7 @@
         <v>-7.66000000000000014</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>-7.42999999999999883</v>
+        <v>-7.42999999999999972</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>-0.230000000000000027</v>
@@ -8683,7 +8671,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1686663167" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1686984805" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -8692,14 +8680,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1686984805" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1686984805" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1686663167" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1686984805" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9606,7 +9594,7 @@
         <v>-8.47000000000000064</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>-7.96999999999999886</v>
+        <v>-7.96999999999999975</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>-0.5</v>
@@ -9632,7 +9620,7 @@
         <v>73.7199999999999989</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>-7.42999999999999883</v>
+        <v>-7.42999999999999972</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>-6.83999999999999986</v>
@@ -9771,7 +9759,7 @@
         <v>18</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>-9.17000000000000171</v>
+        <v>-9.16999999999999993</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>112</v>
@@ -9835,7 +9823,7 @@
         <v>3.52000000000000002</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>-7.21999999999999886</v>
+        <v>-7.21999999999999975</v>
       </c>
       <c r="F45" s="1" t="n">
         <v>-6.79000000000000004</v>
@@ -9944,7 +9932,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1686663167" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1686984805" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9953,14 +9941,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1686984805" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1686984805" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1686663167" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1686984805" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -10170,7 +10158,7 @@
         <v>10.4900000000000002</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>-10.6699999999999999</v>
+        <v>-10.6700000000000017</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>-10.5399999999999991</v>
@@ -10260,7 +10248,7 @@
         <v>-8.09999999999999787</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>-7.92999999999999972</v>
+        <v>-7.92999999999999883</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>-0.160000000000000009</v>
@@ -10485,7 +10473,7 @@
         <v>3.87999999999999989</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>-9.17000000000000171</v>
+        <v>-9.16999999999999993</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>-9.00999999999999979</v>
@@ -10682,13 +10670,13 @@
         <v>21</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>-7.46999999999999886</v>
+        <v>-7.46999999999999975</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>3.35999999999999988</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>-11.3400000000000016</v>
+        <v>-11.3399999999999999</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>-10.8599999999999994</v>
@@ -11058,7 +11046,7 @@
         <v>-6.83999999999999986</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>9.67000000000000171</v>
+        <v>9.66999999999999993</v>
       </c>
       <c r="E44" s="1" t="n">
         <v>-8.63000000000000078</v>
@@ -11197,7 +11185,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1686663167" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1686984805" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -11206,14 +11194,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1686663167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1686984805" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1686984805" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1686663167" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1686984805" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
